--- a/src/main/java/com/dsa2024/content/DSA(2024).xlsx
+++ b/src/main/java/com/dsa2024/content/DSA(2024).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="119">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -46,6 +46,20 @@
   <si>
     <t xml:space="preserve">Given a sentence, find the occurrence of each word
 Given a sentence, find the words with a specified number of vowels 2 for each</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03-01-2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interviews QA
+Stream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating an Immutable Class
+Find unique characters in a given string
+Given a list of Integers, divide into two lists one having an even numbers and the having odd numbers
+I/P : int[] arr = {1,2,3,4,5,6,7,8}
+O/P : [[1,3,5,7 ],[2,4,6,8]]</t>
   </si>
   <si>
     <t xml:space="preserve">S.NO.</t>
@@ -643,10 +657,10 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.07"/>
@@ -686,8 +700,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="2"/>
+    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -727,34 +749,34 @@
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I1" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F3" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G3" s="7"/>
     </row>
@@ -766,20 +788,20 @@
         <v>45809</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F5" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -790,20 +812,20 @@
         <v>45809</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F6" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -814,22 +836,22 @@
         <v>45809</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F7" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -840,20 +862,20 @@
         <v>45809</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F8" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -864,22 +886,22 @@
         <v>45811</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F9" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -890,22 +912,22 @@
         <v>45812</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F10" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -916,20 +938,20 @@
         <v>45813</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F11" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -940,22 +962,22 @@
         <v>45818</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F12" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -964,7 +986,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F14" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G14" s="7"/>
     </row>
@@ -980,20 +1002,20 @@
         <v>45814</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F17" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1004,20 +1026,20 @@
         <v>45815</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F18" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1028,25 +1050,25 @@
         <v>45816</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F19" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F23" s="13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G23" s="13"/>
     </row>
@@ -1062,17 +1084,17 @@
         <v>45817</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F26" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1083,20 +1105,20 @@
         <v>45818</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F27" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1107,17 +1129,17 @@
         <v>45818</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F28" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1128,20 +1150,20 @@
         <v>45819</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F29" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1152,20 +1174,20 @@
         <v>45823</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F30" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1176,20 +1198,20 @@
         <v>45824</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F31" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1200,24 +1222,24 @@
         <v>45997</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F32" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F34" s="13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G34" s="13"/>
     </row>
@@ -1233,19 +1255,19 @@
         <v>45997</v>
       </c>
       <c r="C37" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F37" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="H37" s="10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1256,24 +1278,24 @@
         <v>45997</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F38" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F40" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G40" s="13"/>
     </row>
@@ -1289,22 +1311,22 @@
         <v>45998</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F43" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1315,22 +1337,22 @@
         <v>45998</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F44" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1341,19 +1363,19 @@
         <v>45998</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F45" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1364,19 +1386,19 @@
         <v>45998</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F46" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1387,22 +1409,22 @@
         <v>45998</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F47" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1413,19 +1435,19 @@
         <v>45998</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F48" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1436,19 +1458,19 @@
         <v>45998</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F50" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1459,19 +1481,19 @@
         <v>45998</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F51" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1482,19 +1504,19 @@
         <v>45998</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F52" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1505,19 +1527,19 @@
         <v>45998</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F53" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1528,19 +1550,19 @@
         <v>45998</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F54" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1551,19 +1573,19 @@
         <v>45998</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F55" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1574,19 +1596,19 @@
         <v>45998</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F56" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1597,19 +1619,19 @@
         <v>45998</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F57" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1620,19 +1642,19 @@
         <v>45998</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F58" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/dsa2024/content/DSA(2024).xlsx
+++ b/src/main/java/com/dsa2024/content/DSA(2024).xlsx
@@ -602,8 +602,8 @@
   </sheetPr>
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E58" activeCellId="0" sqref="E58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -611,7 +611,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="60"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="32.33"/>

--- a/src/main/java/com/dsa2024/content/DSA(2024).xlsx
+++ b/src/main/java/com/dsa2024/content/DSA(2024).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="106">
   <si>
     <t xml:space="preserve">S.NO.</t>
   </si>
@@ -338,12 +338,6 @@
   </si>
   <si>
     <t xml:space="preserve">Longest Uniform Substring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FirstNonRepeatingChar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find first non-repeating character</t>
   </si>
 </sst>
 </file>
@@ -600,10 +594,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1507,29 +1501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="n">
-        <v>35</v>
-      </c>
-      <c r="B58" s="7" t="n">
-        <v>45998</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="F58" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="F3:G3"/>
